--- a/data/hotels_by_city/Dallas/Dallas_shard_712.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_712.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,228 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d239979-r407258070-Studio_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>56371</t>
+  </si>
+  <si>
+    <t>239979</t>
+  </si>
+  <si>
+    <t>407258070</t>
+  </si>
+  <si>
+    <t>08/18/2016</t>
+  </si>
+  <si>
+    <t>Getting back to life after chaos tore it apart</t>
+  </si>
+  <si>
+    <t>I've enjoyed meeting the people that works here there are only a few that im not on first name basis with. I've lost everything i own due to a drug addicted person that I loved very much and lost my apartment due to this and just got back to work after 14 months due to a shoulder injury, not to mention living in bug infested rooms. Nothing to cook on but a microwave and just a tiny frig to keep things in, its been very hard on me. When i got here after a day or two i could see my attitude changing for the better the staff here treats me like a human being not just like a tenant. For example, when i get off work im going home not going to a motel. People need that treatment cause every road is different and you just don't know what path a person is on. We'll thank you guys for helping me forget the bumpy road i was on.       Sincerely Jason Patterson (Room 202)MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I've enjoyed meeting the people that works here there are only a few that im not on first name basis with. I've lost everything i own due to a drug addicted person that I loved very much and lost my apartment due to this and just got back to work after 14 months due to a shoulder injury, not to mention living in bug infested rooms. Nothing to cook on but a microwave and just a tiny frig to keep things in, its been very hard on me. When i got here after a day or two i could see my attitude changing for the better the staff here treats me like a human being not just like a tenant. For example, when i get off work im going home not going to a motel. People need that treatment cause every road is different and you just don't know what path a person is on. We'll thank you guys for helping me forget the bumpy road i was on.       Sincerely Jason Patterson (Room 202)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d239979-r334119607-Studio_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>334119607</t>
+  </si>
+  <si>
+    <t>12/20/2015</t>
+  </si>
+  <si>
+    <t>ROACHES..ODOR..BAD STAFF,.. OH MY</t>
+  </si>
+  <si>
+    <t>FOR THIS LOCATION O..N..L..Y..-IF YOU ARE COMFORTABLE WITH ROACHES OF ALL SIZES ..DEAD AND ALIVE ON YOUR BED YOUR STOVE YOUR BATHROOM,AND IF YOU HAVE NO PROBLEM WITH ROACH EGG IN YOUR REFRIGERATOR THEN THIS IS A PLACE FOR YOU.I can't speak on any other studio 6 yet. I don't think a hotel should be a total write off on one visit at I location. I like the overall set up and honestly feel that one or two people could comfortably stay for extended periods.I would definitely consider studio 6 , but only after reading reviews and seeing the room first</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d239979-r328856780-Studio_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>328856780</t>
+  </si>
+  <si>
+    <t>11/24/2015</t>
+  </si>
+  <si>
+    <t>This place is all remodeled and very nice! All new beds, paint, flooring and more!! Note to 9richard too!</t>
+  </si>
+  <si>
+    <t>I stayed here for almost 2 years, They did have a small roach problem, for a very brief time during remodel. They do not have roaches now. Very clean. As far as your comment 9richard...... That is a bunch of trash talk. He obviously did something to make you mad and cause you to post crap about him. I knew Randy real well. He has absolutely perfect customer service skills. He accommodates everyone's needs. OTHER then drugs!!! He is definitely not a drug dealer, he is a very nice Christian family man. I can't even imagine why you would post something so lame. He is a very good employee.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d239979-r189072540-Studio_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>189072540</t>
+  </si>
+  <si>
+    <t>12/30/2013</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>We stayed there for over a week due to the fact that we were in the middle of moving. Great place to stay at all the staff is very friendly and the rooms have everything from pots pans, plates, cups, and utensils. Very important for us was the fact that they were pet friendly. The rates are great for what they offer. If ever I need to I would definitely stay there again</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d239979-r160052808-Studio_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>160052808</t>
+  </si>
+  <si>
+    <t>05/08/2013</t>
+  </si>
+  <si>
+    <t>Excellent Place to Be for Extended Living</t>
+  </si>
+  <si>
+    <t>I have been living in this location for 1 year and 8 months now. This is a very nice place to stay. Very reasonably priced. The management staff is extremely friendly and professional. The cleaning and maintenance staff are just as friendly.As for the internet. It is actually very good for Hotel standards.I've lived in 3 different rooms, because I like change :)I haven't had any major problems. The minor ones were addressed immediately. Although we are located by the freeway and there is construction;I have had no problem maneuvering around.  This is quiet location, I sleep very well here. It is centrally located to many businesses, eating establishments, N Hills Hospital, and NE Mall! There is a wonderful residential neighborhood right behind the property that has a biking trail.I love to go walking in this neighborhood, and the folks there are friendly as well. I lived in Dallas most of my life. Very congested and not very safe. North Richland Hills is a very safe and wonderful community to stay in.I would refer anyone to this Hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>I have been living in this location for 1 year and 8 months now. This is a very nice place to stay. Very reasonably priced. The management staff is extremely friendly and professional. The cleaning and maintenance staff are just as friendly.As for the internet. It is actually very good for Hotel standards.I've lived in 3 different rooms, because I like change :)I haven't had any major problems. The minor ones were addressed immediately. Although we are located by the freeway and there is construction;I have had no problem maneuvering around.  This is quiet location, I sleep very well here. It is centrally located to many businesses, eating establishments, N Hills Hospital, and NE Mall! There is a wonderful residential neighborhood right behind the property that has a biking trail.I love to go walking in this neighborhood, and the folks there are friendly as well. I lived in Dallas most of my life. Very congested and not very safe. North Richland Hills is a very safe and wonderful community to stay in.I would refer anyone to this Hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d239979-r135299968-Studio_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>135299968</t>
+  </si>
+  <si>
+    <t>07/24/2012</t>
+  </si>
+  <si>
+    <t>Comfortable, reasonably priced, and great staff!</t>
+  </si>
+  <si>
+    <t>We have stayed at this Studio 6 for almost 10 days and the room was very clean and a great price! Lots of crazy road construction going on so make sure you know exactly where you are going when you try to find this palce, but it is also close  to everything!The movie theater in the next block (walking distance when not in 106 degree heat!) is showing second run movies for only $1.25...and it is actually a pretty nice theater.Recommended for extended stays in the area. Much nicer than the Studio 6 in South Arlington!</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d239979-r122301549-Studio_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>122301549</t>
+  </si>
+  <si>
+    <t>12/30/2011</t>
+  </si>
+  <si>
+    <t>Average Motel for a place to sleep. It'll do.</t>
+  </si>
+  <si>
+    <t>If you're just passing thru, this is a decent price motel. It is located in an industrial park area, with no scenery, but easy access to the freeway. There is a movie theatre within walking distance that has not so recently released movies. Many of the businesses appeared shuttered in the shopping mall across the street.  We were traveling with our dog and they accept pets, however it looked like many people don't pick up after theirs. It appeared that many of the residents are more long term stay than overnight stay. They do have a small kitchen, with mini-fridge to put cold items. We stayed one night when wanting to get far east of Dallas and back on the road. The check in went smoothly. The room while small, was typical motel 6.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>If you're just passing thru, this is a decent price motel. It is located in an industrial park area, with no scenery, but easy access to the freeway. There is a movie theatre within walking distance that has not so recently released movies. Many of the businesses appeared shuttered in the shopping mall across the street.  We were traveling with our dog and they accept pets, however it looked like many people don't pick up after theirs. It appeared that many of the residents are more long term stay than overnight stay. They do have a small kitchen, with mini-fridge to put cold items. We stayed one night when wanting to get far east of Dallas and back on the road. The check in went smoothly. The room while small, was typical motel 6.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d239979-r122082827-Studio_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>122082827</t>
+  </si>
+  <si>
+    <t>12/25/2011</t>
+  </si>
+  <si>
+    <t>Actually a very good place to stay</t>
+  </si>
+  <si>
+    <t>We were at the Value Place down the road, which sucked. Went to look at Studio 6. MUCH nicer!! Studio 6 provides cooking utensils (Value Place wanted $30 for a "dish pack"), coffee maker (had to go buy one at Value Place), more towels (Value Place provided two bath towels and two wash cloths, nothing more). It was very quiet (very noisy at Value Place), seemed much more like a "regular" hotel. Greater value for the price. And the staff was very friendly. Would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d239979-r80433068-Studio_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>80433068</t>
+  </si>
+  <si>
+    <t>09/21/2010</t>
+  </si>
+  <si>
+    <t>Clean, Decent and Well-Located</t>
+  </si>
+  <si>
+    <t>We stayed at this Studio 6 for two nights, during a cross-country move with our dog, when our truck broke down.  The room and kitchen are postage stamp small, but ours was clean and decent.  The kitchen is minimally equipped with pots and pans, but we didn't cook anyway.  Multiple restaurants are close by--some within walking distance.  And, given our predicament, I'll add the value that multiple auto dealerships with repair facilities are also nearby.  Laundry facilities with multiple washers and dryers exist on site, all of which were working.  My only complaint is that it appeared that water had gotten into the laundry soap sold on site, making the boxes warped and the soap crusty.  However, that is very small since it all dissolves in the wash anyway.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>We stayed at this Studio 6 for two nights, during a cross-country move with our dog, when our truck broke down.  The room and kitchen are postage stamp small, but ours was clean and decent.  The kitchen is minimally equipped with pots and pans, but we didn't cook anyway.  Multiple restaurants are close by--some within walking distance.  And, given our predicament, I'll add the value that multiple auto dealerships with repair facilities are also nearby.  Laundry facilities with multiple washers and dryers exist on site, all of which were working.  My only complaint is that it appeared that water had gotten into the laundry soap sold on site, making the boxes warped and the soap crusty.  However, that is very small since it all dissolves in the wash anyway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d239979-r7345154-Studio_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>7345154</t>
+  </si>
+  <si>
+    <t>04/12/2007</t>
+  </si>
+  <si>
+    <t>Average Hotel, Questionable Management</t>
+  </si>
+  <si>
+    <t>Stayed for two weeks in a smoking room. Price was great at just 209.00 per week. However, blankets had holes, A/C smelled like mildew and since this property allows pets... Dogs could be heard barking at all hours of the night. The office also incorrectly billed my credit card, and it took weeks to fix the error. If you need a cheap place to stay, and can tollerate these type of issues, then I would reccomend it.</t>
+  </si>
+  <si>
+    <t>April 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d239979-r1510652-Studio_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>1510652</t>
+  </si>
+  <si>
+    <t>12/07/2003</t>
+  </si>
+  <si>
+    <t>Great place, very friendly staff.</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at the Studio 6 for 2 months while moving to Texas and looking for a house. The staff was awesome, very friendly and professional. Always available, anytime of day or night, and willing to go out of their way to help. Also gave me a special rate even lower than their advertised rates and Didn't charge me the pet deposit (didn't charge me any deposit) Great people and a great place to stay. I would recommend to anyone staying in the Dallas Ft. Worth area, check this place out before you stay anywhere else. Close to Airport, walking distance to Hooter's, $.50 movie theatre, and the mall.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at the Studio 6 for 2 months while moving to Texas and looking for a house. The staff was awesome, very friendly and professional. Always available, anytime of day or night, and willing to go out of their way to help. Also gave me a special rate even lower than their advertised rates and Didn't charge me the pet deposit (didn't charge me any deposit) Great people and a great place to stay. I would recommend to anyone staying in the Dallas Ft. Worth area, check this place out before you stay anywhere else. Close to Airport, walking distance to Hooter's, $.50 movie theatre, and the mall.More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +867,703 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>31353</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>31353</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>31353</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>31353</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>31353</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>31353</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>31353</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
+        <v>91</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>31353</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" t="s">
+        <v>91</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>31353</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" t="s">
+        <v>91</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>31353</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>84</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>31353</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_712.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_712.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="128">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>jkpatt</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t>I've enjoyed meeting the people that works here there are only a few that im not on first name basis with. I've lost everything i own due to a drug addicted person that I loved very much and lost my apartment due to this and just got back to work after 14 months due to a shoulder injury, not to mention living in bug infested rooms. Nothing to cook on but a microwave and just a tiny frig to keep things in, its been very hard on me. When i got here after a day or two i could see my attitude changing for the better the staff here treats me like a human being not just like a tenant. For example, when i get off work im going home not going to a motel. People need that treatment cause every road is different and you just don't know what path a person is on. We'll thank you guys for helping me forget the bumpy road i was on.       Sincerely Jason Patterson (Room 202)More</t>
   </si>
   <si>
+    <t>Wauntetta W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d239979-r334119607-Studio_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>nancy a</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d239979-r328856780-Studio_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>travelcouplelnt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d239979-r189072540-Studio_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -231,6 +243,9 @@
     <t>We stayed there for over a week due to the fact that we were in the middle of moving. Great place to stay at all the staff is very friendly and the rooms have everything from pots pans, plates, cups, and utensils. Very important for us was the fact that they were pet friendly. The rates are great for what they offer. If ever I need to I would definitely stay there again</t>
   </si>
   <si>
+    <t>Sandra L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d239979-r160052808-Studio_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -252,6 +267,9 @@
     <t>I have been living in this location for 1 year and 8 months now. This is a very nice place to stay. Very reasonably priced. The management staff is extremely friendly and professional. The cleaning and maintenance staff are just as friendly.As for the internet. It is actually very good for Hotel standards.I've lived in 3 different rooms, because I like change :)I haven't had any major problems. The minor ones were addressed immediately. Although we are located by the freeway and there is construction;I have had no problem maneuvering around.  This is quiet location, I sleep very well here. It is centrally located to many businesses, eating establishments, N Hills Hospital, and NE Mall! There is a wonderful residential neighborhood right behind the property that has a biking trail.I love to go walking in this neighborhood, and the folks there are friendly as well. I lived in Dallas most of my life. Very congested and not very safe. North Richland Hills is a very safe and wonderful community to stay in.I would refer anyone to this Hotel.More</t>
   </si>
   <si>
+    <t>JDtheGypsy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d239979-r135299968-Studio_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -273,6 +291,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>NolaDru</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d239979-r122301549-Studio_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -297,6 +318,9 @@
     <t>If you're just passing thru, this is a decent price motel. It is located in an industrial park area, with no scenery, but easy access to the freeway. There is a movie theatre within walking distance that has not so recently released movies. Many of the businesses appeared shuttered in the shopping mall across the street.  We were traveling with our dog and they accept pets, however it looked like many people don't pick up after theirs. It appeared that many of the residents are more long term stay than overnight stay. They do have a small kitchen, with mini-fridge to put cold items. We stayed one night when wanting to get far east of Dallas and back on the road. The check in went smoothly. The room while small, was typical motel 6.More</t>
   </si>
   <si>
+    <t>Julie F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d239979-r122082827-Studio_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -312,6 +336,9 @@
     <t>We were at the Value Place down the road, which sucked. Went to look at Studio 6. MUCH nicer!! Studio 6 provides cooking utensils (Value Place wanted $30 for a "dish pack"), coffee maker (had to go buy one at Value Place), more towels (Value Place provided two bath towels and two wash cloths, nothing more). It was very quiet (very noisy at Value Place), seemed much more like a "regular" hotel. Greater value for the price. And the staff was very friendly. Would definitely stay here again.</t>
   </si>
   <si>
+    <t>rockyhillgal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d239979-r80433068-Studio_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -333,6 +360,9 @@
     <t>We stayed at this Studio 6 for two nights, during a cross-country move with our dog, when our truck broke down.  The room and kitchen are postage stamp small, but ours was clean and decent.  The kitchen is minimally equipped with pots and pans, but we didn't cook anyway.  Multiple restaurants are close by--some within walking distance.  And, given our predicament, I'll add the value that multiple auto dealerships with repair facilities are also nearby.  Laundry facilities with multiple washers and dryers exist on site, all of which were working.  My only complaint is that it appeared that water had gotten into the laundry soap sold on site, making the boxes warped and the soap crusty.  However, that is very small since it all dissolves in the wash anyway.More</t>
   </si>
   <si>
+    <t>texasweiss</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d239979-r7345154-Studio_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -349,6 +379,9 @@
   </si>
   <si>
     <t>April 2007</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d239979-r1510652-Studio_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
@@ -871,43 +904,47 @@
       <c r="A2" t="n">
         <v>31353</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>178235</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -921,50 +958,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>31353</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>178236</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="n">
         <v>4</v>
@@ -982,50 +1023,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>31353</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>42122</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -1043,41 +1088,45 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>31353</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>178237</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
@@ -1106,50 +1155,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>31353</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>106651</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -1173,50 +1226,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>31353</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>178238</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -1240,50 +1297,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>31353</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>178239</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -1307,50 +1368,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>31353</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>3981</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
         <v>97</v>
       </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>90</v>
-      </c>
       <c r="O9" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -1374,50 +1439,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>31353</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>92247</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>112</v>
+      </c>
+      <c r="O10" t="s">
         <v>98</v>
-      </c>
-      <c r="G10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" t="s">
-        <v>99</v>
-      </c>
-      <c r="J10" t="s">
-        <v>100</v>
-      </c>
-      <c r="K10" t="s">
-        <v>101</v>
-      </c>
-      <c r="L10" t="s">
-        <v>102</v>
-      </c>
-      <c r="M10" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s">
-        <v>103</v>
-      </c>
-      <c r="O10" t="s">
-        <v>91</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -1441,50 +1510,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>31353</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>178240</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="O11" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P11" t="n">
         <v>2</v>
@@ -1508,41 +1581,45 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>31353</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="J12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="K12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
@@ -1561,7 +1638,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_712.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_712.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="170">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,81 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>jkpatt</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/28/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d239979-r609943178-Studio_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>56371</t>
+  </si>
+  <si>
+    <t>239979</t>
+  </si>
+  <si>
+    <t>609943178</t>
+  </si>
+  <si>
+    <t>08/24/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phil </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I had an enjoyable 3 nights here. Everything as expected at a 3 star property. Clean and presentable. Reception staff very pleasant and welcoming.  Had a flush issue with toilet and Russell sorted it within the hour. This is my 7th stay here and will be back next week. Thanks to all. </t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d239979-r539540619-Studio_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>539540619</t>
+  </si>
+  <si>
+    <t>11/08/2017</t>
+  </si>
+  <si>
+    <t>Roaches, Roaches, Roaches !</t>
+  </si>
+  <si>
+    <t>Checked in this Motel 6 Studio 9/4/2017 for about two weeks to help with the flooding in Texas. The hotel it self was in a great location and had enough space inside.  The extremely unfortunately part is that there were roaches everywhere!  It was disgusting!.  I reported it to the office and the maid that was responsible for my room; the office said they could not do anything about it because the company that comes to spray only came at certain times and I wanted to be present when they came.  The room had not been cleaned before I checked in; the carpet was dirty and there where dead roaches on the kitchen and bathroom floor.  I showed the dead roaches to the maid.  If you turned off the lights, the roaches came out all over the kitchen counter and island. I went out and purchased bug spray.  My scheduled was so hectic (7-7) that I had no time to look for another room and due to the flood, majority of hotels were full. I never unpacked my cloths because I did not want roaches in my clothes  Also, my room extra security lock did not work - the latch that is supposed to catch the door if someone tried to open it..... It would not catch. At night, I put a chair under the door knob.  I stayed in room 222 on the ground floor.  I have stayed in...Checked in this Motel 6 Studio 9/4/2017 for about two weeks to help with the flooding in Texas. The hotel it self was in a great location and had enough space inside.  The extremely unfortunately part is that there were roaches everywhere!  It was disgusting!.  I reported it to the office and the maid that was responsible for my room; the office said they could not do anything about it because the company that comes to spray only came at certain times and I wanted to be present when they came.  The room had not been cleaned before I checked in; the carpet was dirty and there where dead roaches on the kitchen and bathroom floor.  I showed the dead roaches to the maid.  If you turned off the lights, the roaches came out all over the kitchen counter and island. I went out and purchased bug spray.  My scheduled was so hectic (7-7) that I had no time to look for another room and due to the flood, majority of hotels were full. I never unpacked my cloths because I did not want roaches in my clothes  Also, my room extra security lock did not work - the latch that is supposed to catch the door if someone tried to open it..... It would not catch. At night, I put a chair under the door knob.  I stayed in room 222 on the ground floor.  I have stayed in many Motel 6 hotels and I have to say, this is the worst and first time that I have ever seen roaches in my room and the room was not clean. It was a horrible experience.  I would have given it a 1 but the location of the hotel is great.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Checked in this Motel 6 Studio 9/4/2017 for about two weeks to help with the flooding in Texas. The hotel it self was in a great location and had enough space inside.  The extremely unfortunately part is that there were roaches everywhere!  It was disgusting!.  I reported it to the office and the maid that was responsible for my room; the office said they could not do anything about it because the company that comes to spray only came at certain times and I wanted to be present when they came.  The room had not been cleaned before I checked in; the carpet was dirty and there where dead roaches on the kitchen and bathroom floor.  I showed the dead roaches to the maid.  If you turned off the lights, the roaches came out all over the kitchen counter and island. I went out and purchased bug spray.  My scheduled was so hectic (7-7) that I had no time to look for another room and due to the flood, majority of hotels were full. I never unpacked my cloths because I did not want roaches in my clothes  Also, my room extra security lock did not work - the latch that is supposed to catch the door if someone tried to open it..... It would not catch. At night, I put a chair under the door knob.  I stayed in room 222 on the ground floor.  I have stayed in...Checked in this Motel 6 Studio 9/4/2017 for about two weeks to help with the flooding in Texas. The hotel it self was in a great location and had enough space inside.  The extremely unfortunately part is that there were roaches everywhere!  It was disgusting!.  I reported it to the office and the maid that was responsible for my room; the office said they could not do anything about it because the company that comes to spray only came at certain times and I wanted to be present when they came.  The room had not been cleaned before I checked in; the carpet was dirty and there where dead roaches on the kitchen and bathroom floor.  I showed the dead roaches to the maid.  If you turned off the lights, the roaches came out all over the kitchen counter and island. I went out and purchased bug spray.  My scheduled was so hectic (7-7) that I had no time to look for another room and due to the flood, majority of hotels were full. I never unpacked my cloths because I did not want roaches in my clothes  Also, my room extra security lock did not work - the latch that is supposed to catch the door if someone tried to open it..... It would not catch. At night, I put a chair under the door knob.  I stayed in room 222 on the ground floor.  I have stayed in many Motel 6 hotels and I have to say, this is the worst and first time that I have ever seen roaches in my room and the room was not clean. It was a horrible experience.  I would have given it a 1 but the location of the hotel is great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d239979-r452835054-Studio_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>452835054</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>The facility is nice, but the drawback is the noise from the road especially if your room is located in the front. Close to DFW, many stores, mall, restaurants. Room could be bigger otherwise comfortable and not to expensive.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d239979-r407258070-Studio_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
-    <t>56371</t>
-  </si>
-  <si>
-    <t>239979</t>
-  </si>
-  <si>
     <t>407258070</t>
   </si>
   <si>
@@ -177,15 +237,9 @@
     <t>August 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>I've enjoyed meeting the people that works here there are only a few that im not on first name basis with. I've lost everything i own due to a drug addicted person that I loved very much and lost my apartment due to this and just got back to work after 14 months due to a shoulder injury, not to mention living in bug infested rooms. Nothing to cook on but a microwave and just a tiny frig to keep things in, its been very hard on me. When i got here after a day or two i could see my attitude changing for the better the staff here treats me like a human being not just like a tenant. For example, when i get off work im going home not going to a motel. People need that treatment cause every road is different and you just don't know what path a person is on. We'll thank you guys for helping me forget the bumpy road i was on.       Sincerely Jason Patterson (Room 202)More</t>
   </si>
   <si>
-    <t>Wauntetta W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d239979-r334119607-Studio_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -204,9 +258,6 @@
     <t>December 2015</t>
   </si>
   <si>
-    <t>nancy a</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d239979-r328856780-Studio_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -225,7 +276,34 @@
     <t>November 2015</t>
   </si>
   <si>
-    <t>travelcouplelnt</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d239979-r317903680-Studio_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>317903680</t>
+  </si>
+  <si>
+    <t>10/11/2015</t>
+  </si>
+  <si>
+    <t>Not for families or single females</t>
+  </si>
+  <si>
+    <t>The staff does the best they can with what they have to work, but the room smelled like urine soaked mildew and the entire area seemed filled with violent people! The police were constantly on patrol and often were taking screaming people away. I would definitely NOT return and certainly not recommend any family stay here..</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d239979-r201310368-Studio_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>201310368</t>
+  </si>
+  <si>
+    <t>04/15/2014</t>
+  </si>
+  <si>
+    <t>Rooms are ok but the customer service SUCKS!</t>
+  </si>
+  <si>
+    <t>I've stayed here for 4 weeks now and I have to call every week cause they "forget" to clean the young punk kid was not understanding and completely blew me off when I called to have our room cleaned. I'm very very disappointed and will be looking elsewhere to stay. The worst customer service yet!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d239979-r189072540-Studio_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
@@ -243,9 +321,6 @@
     <t>We stayed there for over a week due to the fact that we were in the middle of moving. Great place to stay at all the staff is very friendly and the rooms have everything from pots pans, plates, cups, and utensils. Very important for us was the fact that they were pet friendly. The rates are great for what they offer. If ever I need to I would definitely stay there again</t>
   </si>
   <si>
-    <t>Sandra L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d239979-r160052808-Studio_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -267,9 +342,6 @@
     <t>I have been living in this location for 1 year and 8 months now. This is a very nice place to stay. Very reasonably priced. The management staff is extremely friendly and professional. The cleaning and maintenance staff are just as friendly.As for the internet. It is actually very good for Hotel standards.I've lived in 3 different rooms, because I like change :)I haven't had any major problems. The minor ones were addressed immediately. Although we are located by the freeway and there is construction;I have had no problem maneuvering around.  This is quiet location, I sleep very well here. It is centrally located to many businesses, eating establishments, N Hills Hospital, and NE Mall! There is a wonderful residential neighborhood right behind the property that has a biking trail.I love to go walking in this neighborhood, and the folks there are friendly as well. I lived in Dallas most of my life. Very congested and not very safe. North Richland Hills is a very safe and wonderful community to stay in.I would refer anyone to this Hotel.More</t>
   </si>
   <si>
-    <t>JDtheGypsy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d239979-r135299968-Studio_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -288,10 +360,40 @@
     <t>July 2012</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>NolaDru</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d239979-r132322140-Studio_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>132322140</t>
+  </si>
+  <si>
+    <t>06/19/2012</t>
+  </si>
+  <si>
+    <t>Excellent for the price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have stayed here multiple times for weeks at a time during extended visits to the Ft. Worth area.  We have always been treated well and the accomidations are excellent for the price.  We did not expect a Hilton and we were allowed to keep our small dog.  Definitely in a great area with easy access to the freeways and good restaurants.  Management was super accommodating.  Try for a room in the afternoon shade, because we got an extra room for the older kids for one night and it was not comfortable due to the extreme heat on the sunny side.  </t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d239979-r131219144-Studio_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>131219144</t>
+  </si>
+  <si>
+    <t>06/03/2012</t>
+  </si>
+  <si>
+    <t>Not the nicest of places to stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was ok for the price. However, we found pubic hair on a towel in our bathroom..... Gross. So I went to get new towels and explained to the manager. He was very apologetic and gave me new towels. But, later we found more hairs in the "clean towels"...., again, gross. The cleanest thing in the room was the fridge. There were cobwebs on the bathroom ceiling and my boyfriend got rid of 2 roaches,info he chose to keep from me until we checked out. We would not stay here again. </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d239979-r122301549-Studio_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
@@ -312,15 +414,9 @@
     <t>December 2011</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>If you're just passing thru, this is a decent price motel. It is located in an industrial park area, with no scenery, but easy access to the freeway. There is a movie theatre within walking distance that has not so recently released movies. Many of the businesses appeared shuttered in the shopping mall across the street.  We were traveling with our dog and they accept pets, however it looked like many people don't pick up after theirs. It appeared that many of the residents are more long term stay than overnight stay. They do have a small kitchen, with mini-fridge to put cold items. We stayed one night when wanting to get far east of Dallas and back on the road. The check in went smoothly. The room while small, was typical motel 6.More</t>
   </si>
   <si>
-    <t>Julie F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d239979-r122082827-Studio_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -336,9 +432,6 @@
     <t>We were at the Value Place down the road, which sucked. Went to look at Studio 6. MUCH nicer!! Studio 6 provides cooking utensils (Value Place wanted $30 for a "dish pack"), coffee maker (had to go buy one at Value Place), more towels (Value Place provided two bath towels and two wash cloths, nothing more). It was very quiet (very noisy at Value Place), seemed much more like a "regular" hotel. Greater value for the price. And the staff was very friendly. Would definitely stay here again.</t>
   </si>
   <si>
-    <t>rockyhillgal</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d239979-r80433068-Studio_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -360,7 +453,43 @@
     <t>We stayed at this Studio 6 for two nights, during a cross-country move with our dog, when our truck broke down.  The room and kitchen are postage stamp small, but ours was clean and decent.  The kitchen is minimally equipped with pots and pans, but we didn't cook anyway.  Multiple restaurants are close by--some within walking distance.  And, given our predicament, I'll add the value that multiple auto dealerships with repair facilities are also nearby.  Laundry facilities with multiple washers and dryers exist on site, all of which were working.  My only complaint is that it appeared that water had gotten into the laundry soap sold on site, making the boxes warped and the soap crusty.  However, that is very small since it all dissolves in the wash anyway.More</t>
   </si>
   <si>
-    <t>texasweiss</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d239979-r76374243-Studio_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>76374243</t>
+  </si>
+  <si>
+    <t>08/22/2010</t>
+  </si>
+  <si>
+    <t>Got just what I asked for</t>
+  </si>
+  <si>
+    <t>Asked for a quiet room, the best price, cleanliness and a comfortable bed.  Done.  Service, accomodations, and quality of the room were all excellent.  Small coffee pot in room and complete kitchen for only $39 a night.  Nothing fancy, and they did ask for $1 for the coffee each morning, but never collected it.  I don't understand the bad reviews for this price in a perfect location.</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d239979-r74357409-Studio_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>74357409</t>
+  </si>
+  <si>
+    <t>08/08/2010</t>
+  </si>
+  <si>
+    <t>Unacceptable</t>
+  </si>
+  <si>
+    <t>My wife and I were staying here while we were looking for a place to live. It was a terrible experience.The room is nowhere near the size shown on their website, and it's filthy. All of the surfaces in the room were sticky from having never been cleaned, and the linens were old, dirty, and ragged. We had them cleaned, and what was returned back to us wasn't any better. In the kitchen and bathroom areas, there were small cockroaches at night. These two areas were really cramped and it was hard to move around.The wireless Internet only seemed to work in the morning, and the staff weren't willing to try to fix it.The deal-breaker was that the Air Conditioning didn't function well. It produced humid, smelly, yet slightly cool air on its maximum setting, but nowhere near what's needed for the Texas summer; we couldn't stay in the room during daylight hours and we were sweating all night. We asked the staff to try to fix the A/C, but they said they looked at it and that it's working the way it's supposed to; they were just trying to avoid having to go through the work to get it fixed.We were lucky that we found a place to live quickly, as otherwise we would have gone somewhere else for our second week.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>My wife and I were staying here while we were looking for a place to live. It was a terrible experience.The room is nowhere near the size shown on their website, and it's filthy. All of the surfaces in the room were sticky from having never been cleaned, and the linens were old, dirty, and ragged. We had them cleaned, and what was returned back to us wasn't any better. In the kitchen and bathroom areas, there were small cockroaches at night. These two areas were really cramped and it was hard to move around.The wireless Internet only seemed to work in the morning, and the staff weren't willing to try to fix it.The deal-breaker was that the Air Conditioning didn't function well. It produced humid, smelly, yet slightly cool air on its maximum setting, but nowhere near what's needed for the Texas summer; we couldn't stay in the room during daylight hours and we were sweating all night. We asked the staff to try to fix the A/C, but they said they looked at it and that it's working the way it's supposed to; they were just trying to avoid having to go through the work to get it fixed.We were lucky that we found a place to live quickly, as otherwise we would have gone somewhere else for our second week.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d239979-r7345154-Studio_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
@@ -379,9 +508,6 @@
   </si>
   <si>
     <t>April 2007</t>
-  </si>
-  <si>
-    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d239979-r1510652-Studio_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
@@ -904,47 +1030,43 @@
       <c r="A2" t="n">
         <v>31353</v>
       </c>
-      <c r="B2" t="n">
-        <v>178235</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -958,64 +1080,62 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>31353</v>
       </c>
-      <c r="B3" t="n">
-        <v>178236</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
         <v>1</v>
       </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1030,57 +1150,55 @@
       <c r="A4" t="n">
         <v>31353</v>
       </c>
-      <c r="B4" t="n">
-        <v>42122</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
         <v>63</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="L4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>68</v>
-      </c>
       <c r="O4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q4" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1088,137 +1206,117 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>31353</v>
       </c>
-      <c r="B5" t="n">
-        <v>178237</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
         <v>69</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="K5" t="s">
         <v>70</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>71</v>
-      </c>
-      <c r="J5" t="s">
-        <v>72</v>
-      </c>
-      <c r="K5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L5" t="s">
-        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>4</v>
-      </c>
-      <c r="R5" t="n">
-        <v>4</v>
-      </c>
-      <c r="S5" t="n">
-        <v>4</v>
-      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>31353</v>
       </c>
-      <c r="B6" t="n">
-        <v>106651</v>
-      </c>
-      <c r="C6" t="s">
-        <v>75</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
         <v>76</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>77</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>78</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>79</v>
       </c>
-      <c r="L6" t="s">
-        <v>80</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>81</v>
-      </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>4</v>
-      </c>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1226,67 +1324,57 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>31353</v>
       </c>
-      <c r="B7" t="n">
-        <v>178238</v>
-      </c>
-      <c r="C7" t="s">
-        <v>83</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
         <v>84</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
         <v>85</v>
       </c>
-      <c r="J7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>89</v>
-      </c>
       <c r="O7" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
-      <c r="R7" t="n">
-        <v>4</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
         <v>5</v>
@@ -1297,141 +1385,115 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>31353</v>
       </c>
-      <c r="B8" t="n">
-        <v>178239</v>
-      </c>
-      <c r="C8" t="s">
-        <v>91</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
-      </c>
-      <c r="N8" t="s">
-        <v>97</v>
-      </c>
-      <c r="O8" t="s">
-        <v>98</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" t="n">
-        <v>3</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>3</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>31353</v>
       </c>
-      <c r="B9" t="n">
-        <v>3981</v>
-      </c>
-      <c r="C9" t="s">
-        <v>100</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>97</v>
-      </c>
-      <c r="O9" t="s">
-        <v>98</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
         <v>4</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1439,60 +1501,52 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>31353</v>
       </c>
-      <c r="B10" t="n">
-        <v>92247</v>
-      </c>
-      <c r="C10" t="s">
-        <v>106</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="L10" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s">
-        <v>112</v>
-      </c>
-      <c r="O10" t="s">
-        <v>98</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R10" t="n">
         <v>4</v>
@@ -1502,7 +1556,7 @@
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1510,70 +1564,66 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>31353</v>
       </c>
-      <c r="B11" t="n">
-        <v>178240</v>
-      </c>
-      <c r="C11" t="s">
-        <v>114</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="L11" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="O11" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="P11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1581,64 +1631,649 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>31353</v>
       </c>
-      <c r="B12" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>121</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="J12" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="K12" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>113</v>
+      </c>
+      <c r="O12" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
         <v>5</v>
       </c>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
-      <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>31353</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" t="s">
+        <v>118</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>119</v>
+      </c>
+      <c r="O13" t="s">
+        <v>120</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>31353</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14" t="s">
+        <v>125</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>31353</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
         <v>127</v>
+      </c>
+      <c r="J15" t="s">
+        <v>128</v>
+      </c>
+      <c r="K15" t="s">
+        <v>129</v>
+      </c>
+      <c r="L15" t="s">
+        <v>130</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>131</v>
+      </c>
+      <c r="O15" t="s">
+        <v>120</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>31353</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>134</v>
+      </c>
+      <c r="J16" t="s">
+        <v>135</v>
+      </c>
+      <c r="K16" t="s">
+        <v>136</v>
+      </c>
+      <c r="L16" t="s">
+        <v>137</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>131</v>
+      </c>
+      <c r="O16" t="s">
+        <v>120</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>31353</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>139</v>
+      </c>
+      <c r="J17" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17" t="s">
+        <v>141</v>
+      </c>
+      <c r="L17" t="s">
+        <v>142</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>143</v>
+      </c>
+      <c r="O17" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>31353</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" t="s">
+        <v>147</v>
+      </c>
+      <c r="K18" t="s">
+        <v>148</v>
+      </c>
+      <c r="L18" t="s">
+        <v>149</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>150</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>31353</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>151</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>152</v>
+      </c>
+      <c r="J19" t="s">
+        <v>153</v>
+      </c>
+      <c r="K19" t="s">
+        <v>154</v>
+      </c>
+      <c r="L19" t="s">
+        <v>155</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>156</v>
+      </c>
+      <c r="O19" t="s">
+        <v>120</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>31353</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>159</v>
+      </c>
+      <c r="J20" t="s">
+        <v>160</v>
+      </c>
+      <c r="K20" t="s">
+        <v>161</v>
+      </c>
+      <c r="L20" t="s">
+        <v>162</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>163</v>
+      </c>
+      <c r="O20" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>31353</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>165</v>
+      </c>
+      <c r="J21" t="s">
+        <v>166</v>
+      </c>
+      <c r="K21" t="s">
+        <v>167</v>
+      </c>
+      <c r="L21" t="s">
+        <v>168</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
